--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9992186548244673</v>
+        <v>0.410845134592065</v>
       </c>
       <c r="E3">
-        <v>0.9992186548244673</v>
+        <v>0.410845134592065</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.999879395573341</v>
+        <v>0.9924099073764798</v>
       </c>
       <c r="E4">
-        <v>0.999879395573341</v>
+        <v>0.9924099073764798</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.699855328490183E-07</v>
+        <v>1.439065369307728E-09</v>
       </c>
       <c r="E5">
-        <v>1.699855328490183E-07</v>
+        <v>1.439065369307728E-09</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5.498019007476511E-12</v>
+        <v>0.001142764819202968</v>
       </c>
       <c r="E6">
-        <v>5.498019007476511E-12</v>
+        <v>0.001142764819202968</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.999606109462156</v>
+        <v>0.9999134664762226</v>
       </c>
       <c r="E8">
-        <v>0.0003938905378439994</v>
+        <v>8.653352377741008E-05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.999999999995187</v>
+        <v>0.999999999999996</v>
       </c>
       <c r="E9">
-        <v>4.813038856354979E-12</v>
+        <v>3.996802888650564E-15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.044101130283432E-06</v>
+        <v>1.716369506482791E-09</v>
       </c>
       <c r="E10">
-        <v>0.9999979558988698</v>
+        <v>0.9999999982836305</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.430704911000498E-61</v>
+        <v>2.432130054037753E-36</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>20.79746055603027</v>
+        <v>14.68372821807861</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
